--- a/Document/Others/Note.xlsx
+++ b/Document/Others/Note.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuan vinh\Documents\GitHub\ISDProject\Document\Others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xuanvinh\Documents\GitHub\ISDProject\Document\Others\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Code follow</t>
   </si>
@@ -101,9 +101,6 @@
     <t>(ví dụ: muốn xem đối tuowgnj RespondingRequest là gì: click vào nó và nhấn f12)</t>
   </si>
   <si>
-    <t>Khi xử lý nghiệp vụ API controller sẽ gọi đến model trong arear ( muốn xác định ở model nào thì xem Interface của nó)</t>
-  </si>
-  <si>
     <t>Ở đây là AdminRepository thì nó sẽ ở AdminManagement(Chỗ này bên kia là Account vì trước đặt lởm nhưng ko muốn sửa lại) -&gt; Model</t>
   </si>
   <si>
@@ -115,6 +112,12 @@
   <si>
     <t>Thực thi Interface: sẽ là tên Interface + Impl(vd: CategoryRepositoryImpl)</t>
   </si>
+  <si>
+    <t>(Nơi nhận request từ bên client)</t>
+  </si>
+  <si>
+    <t>Khi xử lý nghiệp vụ API controller sẽ gọi đến model trong area ( muốn xác định ở model nào thì xem Interface của nó)</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +127,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -249,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Chuẩn" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -316,15 +319,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>157844</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>111579</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>529319</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92529</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -348,8 +351,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10534650" y="533400"/>
-          <a:ext cx="5857875" cy="2838450"/>
+          <a:off x="11955237" y="111579"/>
+          <a:ext cx="6617153" cy="2634343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -843,15 +846,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>522515</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>44904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>28176</xdr:colOff>
-      <xdr:row>74</xdr:row>
-      <xdr:rowOff>8558</xdr:rowOff>
+      <xdr:colOff>55391</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144629</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -868,8 +871,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7810500" y="6372225"/>
-          <a:ext cx="3190476" cy="7733333"/>
+          <a:off x="8850086" y="5882368"/>
+          <a:ext cx="3696662" cy="7175440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -966,15 +969,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>138</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>503314</xdr:colOff>
-      <xdr:row>179</xdr:row>
-      <xdr:rowOff>179976</xdr:rowOff>
+      <xdr:colOff>536932</xdr:colOff>
+      <xdr:row>180</xdr:row>
+      <xdr:rowOff>682</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -991,8 +994,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="26289000"/>
-          <a:ext cx="12085714" cy="7990476"/>
+          <a:off x="33618" y="24742588"/>
+          <a:ext cx="13703843" cy="7531035"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1576,21 +1579,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AK227"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A228" sqref="A228"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1604,7 +1607,7 @@
       <c r="K4" s="3"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1618,7 +1621,7 @@
       <c r="K5" s="6"/>
       <c r="L5" s="7"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>1</v>
@@ -1636,7 +1639,7 @@
       <c r="K6" s="6"/>
       <c r="L6" s="7"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6" t="s">
@@ -1655,7 +1658,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1669,7 +1672,7 @@
       <c r="K8" s="9"/>
       <c r="L8" s="10"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -1684,7 +1687,7 @@
       <c r="L9" s="6"/>
       <c r="U9"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -1700,7 +1703,7 @@
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -1714,7 +1717,7 @@
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1728,7 +1731,7 @@
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1742,7 +1745,7 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -1756,7 +1759,7 @@
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1771,7 +1774,7 @@
       <c r="L15" s="3"/>
       <c r="M15" s="4"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1780,7 +1783,9 @@
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
+      <c r="G16" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -1788,7 +1793,7 @@
       <c r="L16" s="6"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -1803,7 +1808,7 @@
       <c r="L17" s="6"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -1818,7 +1823,7 @@
       <c r="L18" s="6"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -1835,7 +1840,7 @@
       <c r="L19" s="6"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1852,7 +1857,7 @@
       <c r="L20" s="6"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -1870,7 +1875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -1885,7 +1890,7 @@
       <c r="L22" s="6"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1912,15 +1917,12 @@
       <c r="AA23" s="3"/>
       <c r="AB23" s="4"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A24" s="5"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
@@ -1937,13 +1939,15 @@
       <c r="AA24" s="6"/>
       <c r="AB24" s="7"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A25" s="5"/>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
+      <c r="F25" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
@@ -1960,7 +1964,7 @@
       <c r="AA25" s="6"/>
       <c r="AB25" s="7"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
@@ -1983,7 +1987,7 @@
       <c r="AA26" s="9"/>
       <c r="AB26" s="10"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
@@ -1998,7 +2002,7 @@
       <c r="L27" s="6"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A28" s="5"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -2013,7 +2017,7 @@
       <c r="L28" s="6"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -2028,7 +2032,7 @@
       <c r="L29" s="6"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2045,22 +2049,22 @@
       <c r="L30" s="9"/>
       <c r="M30" s="10"/>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -2099,7 +2103,7 @@
       <c r="AJ82" s="3"/>
       <c r="AK82" s="4"/>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83" s="5"/>
       <c r="B83" s="6"/>
       <c r="C83" s="6"/>
@@ -2138,7 +2142,7 @@
       <c r="AJ83" s="6"/>
       <c r="AK83" s="7"/>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84" s="5"/>
       <c r="B84" s="6"/>
       <c r="C84" s="6"/>
@@ -2177,7 +2181,7 @@
       <c r="AJ84" s="6"/>
       <c r="AK84" s="7"/>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85" s="5"/>
       <c r="B85" s="6"/>
       <c r="C85" s="6"/>
@@ -2216,7 +2220,7 @@
       <c r="AJ85" s="6"/>
       <c r="AK85" s="7"/>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86" s="5"/>
       <c r="B86" s="6"/>
       <c r="C86" s="6"/>
@@ -2255,7 +2259,7 @@
       <c r="AJ86" s="6"/>
       <c r="AK86" s="7"/>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87" s="5"/>
       <c r="B87" s="6"/>
       <c r="C87" s="6"/>
@@ -2294,7 +2298,7 @@
       <c r="AJ87" s="6"/>
       <c r="AK87" s="7"/>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88" s="5"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
@@ -2333,7 +2337,7 @@
       <c r="AJ88" s="6"/>
       <c r="AK88" s="7"/>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89" s="5"/>
       <c r="B89" s="6"/>
       <c r="C89" s="6"/>
@@ -2372,7 +2376,7 @@
       <c r="AJ89" s="6"/>
       <c r="AK89" s="7"/>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90" s="5"/>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
@@ -2411,7 +2415,7 @@
       <c r="AJ90" s="6"/>
       <c r="AK90" s="7"/>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91" s="5"/>
       <c r="B91" s="6"/>
       <c r="C91" s="6"/>
@@ -2450,7 +2454,7 @@
       <c r="AJ91" s="6"/>
       <c r="AK91" s="7"/>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92" s="5"/>
       <c r="B92" s="6"/>
       <c r="C92" s="6"/>
@@ -2489,7 +2493,7 @@
       <c r="AJ92" s="6"/>
       <c r="AK92" s="7"/>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93" s="5"/>
       <c r="B93" s="6"/>
       <c r="C93" s="6"/>
@@ -2528,7 +2532,7 @@
       <c r="AJ93" s="6"/>
       <c r="AK93" s="7"/>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94" s="5"/>
       <c r="B94" s="6"/>
       <c r="C94" s="6"/>
@@ -2567,7 +2571,7 @@
       <c r="AJ94" s="6"/>
       <c r="AK94" s="7"/>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95" s="5"/>
       <c r="B95" s="6"/>
       <c r="C95" s="6"/>
@@ -2606,7 +2610,7 @@
       <c r="AJ95" s="6"/>
       <c r="AK95" s="7"/>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96" s="5"/>
       <c r="B96" s="6"/>
       <c r="C96" s="6"/>
@@ -2645,7 +2649,7 @@
       <c r="AJ96" s="6"/>
       <c r="AK96" s="7"/>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A97" s="5"/>
       <c r="B97" s="6"/>
       <c r="C97" s="6"/>
@@ -2684,7 +2688,7 @@
       <c r="AJ97" s="6"/>
       <c r="AK97" s="7"/>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A98" s="5"/>
       <c r="B98" s="6"/>
       <c r="C98" s="6"/>
@@ -2723,7 +2727,7 @@
       <c r="AJ98" s="6"/>
       <c r="AK98" s="7"/>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A99" s="5"/>
       <c r="B99" s="6"/>
       <c r="C99" s="6"/>
@@ -2762,7 +2766,7 @@
       <c r="AJ99" s="6"/>
       <c r="AK99" s="7"/>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A100" s="5"/>
       <c r="B100" s="6"/>
       <c r="C100" s="6"/>
@@ -2801,7 +2805,7 @@
       <c r="AJ100" s="6"/>
       <c r="AK100" s="7"/>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A101" s="5"/>
       <c r="B101" s="6"/>
       <c r="C101" s="6"/>
@@ -2840,7 +2844,7 @@
       <c r="AJ101" s="6"/>
       <c r="AK101" s="7"/>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A102" s="5"/>
       <c r="B102" s="6"/>
       <c r="C102" s="6"/>
@@ -2879,7 +2883,7 @@
       <c r="AJ102" s="6"/>
       <c r="AK102" s="7"/>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A103" s="5"/>
       <c r="B103" s="6"/>
       <c r="C103" s="6"/>
@@ -2918,7 +2922,7 @@
       <c r="AJ103" s="6"/>
       <c r="AK103" s="7"/>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A104" s="5"/>
       <c r="B104" s="6"/>
       <c r="C104" s="6"/>
@@ -2957,7 +2961,7 @@
       <c r="AJ104" s="6"/>
       <c r="AK104" s="7"/>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="6"/>
@@ -2996,7 +3000,7 @@
       <c r="AJ105" s="6"/>
       <c r="AK105" s="7"/>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A106" s="5"/>
       <c r="B106" s="6"/>
       <c r="C106" s="6"/>
@@ -3035,7 +3039,7 @@
       <c r="AJ106" s="6"/>
       <c r="AK106" s="7"/>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A107" s="5"/>
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
@@ -3074,7 +3078,7 @@
       <c r="AJ107" s="6"/>
       <c r="AK107" s="7"/>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A108" s="8"/>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -3113,27 +3117,27 @@
       <c r="AJ108" s="9"/>
       <c r="AK108" s="10"/>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.2">
       <c r="C111" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="130" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:22" x14ac:dyDescent="0.2">
       <c r="V130" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="131" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:22" x14ac:dyDescent="0.2">
       <c r="V131" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="132" spans="7:22" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:22" x14ac:dyDescent="0.2">
       <c r="G132" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A185" s="2"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -3149,9 +3153,9 @@
       <c r="M185" s="3"/>
       <c r="N185" s="4"/>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A186" s="5" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B186" s="6"/>
       <c r="C186" s="6"/>
@@ -3167,7 +3171,7 @@
       <c r="M186" s="6"/>
       <c r="N186" s="7"/>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A187" s="5"/>
       <c r="B187" s="6"/>
       <c r="C187" s="6"/>
@@ -3183,7 +3187,7 @@
       <c r="M187" s="6"/>
       <c r="N187" s="7"/>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A188" s="5"/>
       <c r="B188" s="6"/>
       <c r="C188" s="6"/>
@@ -3199,7 +3203,7 @@
       <c r="M188" s="6"/>
       <c r="N188" s="7"/>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A189" s="5"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -3215,7 +3219,7 @@
       <c r="M189" s="6"/>
       <c r="N189" s="7"/>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A190" s="5"/>
       <c r="B190" s="6"/>
       <c r="C190" s="6"/>
@@ -3231,7 +3235,7 @@
       <c r="M190" s="6"/>
       <c r="N190" s="7"/>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A191" s="5"/>
       <c r="B191" s="6"/>
       <c r="C191" s="6"/>
@@ -3247,7 +3251,7 @@
       <c r="M191" s="6"/>
       <c r="N191" s="7"/>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A192" s="5"/>
       <c r="B192" s="6"/>
       <c r="C192" s="6"/>
@@ -3263,7 +3267,7 @@
       <c r="M192" s="6"/>
       <c r="N192" s="7"/>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A193" s="5"/>
       <c r="B193" s="6"/>
       <c r="C193" s="6"/>
@@ -3279,7 +3283,7 @@
       <c r="M193" s="6"/>
       <c r="N193" s="7"/>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A194" s="5"/>
       <c r="B194" s="6"/>
       <c r="C194" s="6"/>
@@ -3295,7 +3299,7 @@
       <c r="M194" s="6"/>
       <c r="N194" s="7"/>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A195" s="5"/>
       <c r="B195" s="6"/>
       <c r="C195" s="6"/>
@@ -3311,7 +3315,7 @@
       <c r="M195" s="6"/>
       <c r="N195" s="7"/>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A196" s="5"/>
       <c r="B196" s="6"/>
       <c r="C196" s="6"/>
@@ -3327,7 +3331,7 @@
       <c r="M196" s="6"/>
       <c r="N196" s="7"/>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A197" s="5"/>
       <c r="B197" s="6"/>
       <c r="C197" s="6"/>
@@ -3343,7 +3347,7 @@
       <c r="M197" s="6"/>
       <c r="N197" s="7"/>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A198" s="5"/>
       <c r="B198" s="6"/>
       <c r="C198" s="6"/>
@@ -3359,7 +3363,7 @@
       <c r="M198" s="6"/>
       <c r="N198" s="7"/>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A199" s="5"/>
       <c r="B199" s="6"/>
       <c r="C199" s="6"/>
@@ -3375,9 +3379,9 @@
       <c r="M199" s="6"/>
       <c r="N199" s="7"/>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B200" s="6"/>
       <c r="C200" s="6"/>
@@ -3393,7 +3397,7 @@
       <c r="M200" s="6"/>
       <c r="N200" s="7"/>
     </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A201" s="8"/>
       <c r="B201" s="9"/>
       <c r="C201" s="9"/>
@@ -3409,19 +3413,19 @@
       <c r="M201" s="9"/>
       <c r="N201" s="10"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A226" s="1" t="s">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A227" s="1" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A227" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
